--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3093.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3093.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.349989743181507</v>
+        <v>1.256797671318054</v>
       </c>
       <c r="B1">
-        <v>2.633736940903219</v>
+        <v>2.394113540649414</v>
       </c>
       <c r="C1">
-        <v>3.249543817399954</v>
+        <v>4.2109375</v>
       </c>
       <c r="D1">
-        <v>3.843416775290903</v>
+        <v>2.550778150558472</v>
       </c>
       <c r="E1">
-        <v>1.988740207666928</v>
+        <v>1.355120778083801</v>
       </c>
     </row>
   </sheetData>
